--- a/DATA/IsoData/NOGPIsoData.xlsx
+++ b/DATA/IsoData/NOGPIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">effc3d5c-439f-455e-9750-463dbd10bc05</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2df42b90-e32b-47e8-b1ed-5234053c1633</t>
   </si>
   <si>
     <t xml:space="preserve">NOGP.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T142958Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68d8e03b-f992-48be-bee0-88e62805efd4</t>
+    <t xml:space="preserve">20210112T164423Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e5b5a484-40d4-406e-9ca7-20c3a5ee3f32</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.NOGP.20190523.1133</t>
@@ -101,7 +107,7 @@
     <t xml:space="preserve">A00000084947</t>
   </si>
   <si>
-    <t xml:space="preserve">b63f6143-7ab8-4b45-8431-4a2ad105d99a</t>
+    <t xml:space="preserve">c1312afd-5983-44cc-b744-dd5607a81a2f</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.NOGP.20190611.1230</t>
@@ -113,10 +119,10 @@
     <t xml:space="preserve">A00000087089</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T145456Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ffcca319-d083-426a-b3e8-08a41e58d478</t>
+    <t xml:space="preserve">20210112T163101Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f5b7d7ea-36e1-4b79-8974-138875dfa5c4</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.NOGP.20190627.1330</t>
@@ -128,7 +134,7 @@
     <t xml:space="preserve">A00000087321</t>
   </si>
   <si>
-    <t xml:space="preserve">3d7a3ca1-6dce-4f04-b4df-bf6023ebb947</t>
+    <t xml:space="preserve">9ef78e4d-caa1-44ec-99c3-befaa5f0b01f</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.NOGP.20190731.1215</t>
@@ -140,10 +146,10 @@
     <t xml:space="preserve">A00000050054</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T144139Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d9846236-4f2f-48aa-a376-cf7b5049ad50</t>
+    <t xml:space="preserve">20210112T151209Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c3b49aba-8160-4cd6-b0ff-d1ef4d852d7b</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.NOGP.20190826.1122</t>
@@ -155,10 +161,10 @@
     <t xml:space="preserve">A00000137548</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T143719Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">587c728e-4383-44a3-9a67-bae2aae7acce</t>
+    <t xml:space="preserve">20210112T145617Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48e95c95-cfbe-40a7-ba5d-3555dbbf509f</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.NOGP.20190911.1215</t>
@@ -170,10 +176,10 @@
     <t xml:space="preserve">A00000137636</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T143655Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1226d816-0d55-41b8-b987-f0505953899b</t>
+    <t xml:space="preserve">20210112T145936Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73a16bc4-302b-4b3a-96f9-a0c9d43b0bde</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.NOGP.20190925.1410</t>
@@ -185,7 +191,7 @@
     <t xml:space="preserve">A00000137621</t>
   </si>
   <si>
-    <t xml:space="preserve">6c7584eb-a627-4ee7-8377-421745155deb</t>
+    <t xml:space="preserve">41ba1a64-8503-47ca-9dec-d30251e18ffc</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.NOGP.20191015.1120</t>
@@ -197,10 +203,10 @@
     <t xml:space="preserve">A00000139021</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T144301Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1d22c812-6a1e-424b-9be2-4feb2bbd5fdb</t>
+    <t xml:space="preserve">20210112T145901Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5208d53-73d5-435b-a742-84c8f76d2bcc</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.NOGP.20191030.1216</t>
@@ -212,7 +218,7 @@
     <t xml:space="preserve">A00000137767</t>
   </si>
   <si>
-    <t xml:space="preserve">33ee918b-2cb0-4301-97f7-c1a2b011fae9</t>
+    <t xml:space="preserve">ad9813aa-2e2e-4ac3-a5f7-2cbe471e40be</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.NOGP.20191113.1240</t>
@@ -227,10 +233,10 @@
     <t xml:space="preserve">very less amount 2-3 drops only so analysis might be tough but will try</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T143955Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36741b5f-1034-4ef0-a0e0-90236f19f6ac</t>
+    <t xml:space="preserve">20210112T150358Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c1ab3164-06a3-4897-b35b-4881ddbca55c</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.NOGP.20191125.1252</t>
@@ -242,7 +248,7 @@
     <t xml:space="preserve">A00000137878</t>
   </si>
   <si>
-    <t xml:space="preserve">1bbd975d-8d8f-4b34-bcb5-0916559d3d0b</t>
+    <t xml:space="preserve">7b4c717c-a875-4a63-9672-980662550e8f</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.NOGP.20200110.1225</t>
@@ -254,7 +260,94 @@
     <t xml:space="preserve">A00000138012</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T144851Z</t>
+    <t xml:space="preserve">20210112T160706Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f3e7f1de-6c1a-445f-91b7-1c3e722cc75b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.NOGP.20200220.1300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.NOGP.20200220.1300.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000050060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T161702Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ab0e4f94-a49d-440f-b7a8-e1140c6e1e72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.NOGP.20200707.1140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.NOGP.20200707.1140.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000088349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T145544Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c183f08b-35e8-4a45-a016-6797f2060a0d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.NOGP.20200722.1139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.NOGP.20200722.1139.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000088263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e1353718-5e83-4e40-91c6-22f991b13bc6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.NOGP.20200803.1346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.NOGP.20200803.1346.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000238109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T145825Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">697b0959-7740-4d50-b473-4c12dea6f087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.NOGP.20200817.1320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.NOGP.20200817.1320.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000240048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5c5d5783-aa1b-4994-8869-c3100059d6df</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.NOGP.20201013.1219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.NOGP.20201013.1219.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000240050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210201T155001Z</t>
   </si>
 </sst>
 </file>
@@ -592,7 +685,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -646,23 +739,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43578.7979166667</v>
@@ -683,35 +779,38 @@
         <v>0.233</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43640.75</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43594.7722222222</v>
@@ -732,35 +831,38 @@
         <v>0.392</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43640.75</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43608.6930555556</v>
@@ -781,35 +883,38 @@
         <v>0.237</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43627.7868055556</v>
@@ -830,35 +935,38 @@
         <v>0.058</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43643.7840277778</v>
@@ -879,35 +987,38 @@
         <v>0.03</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43685.7083333333</v>
@@ -928,35 +1039,38 @@
         <v>0.068</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43811.7916666667</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43703.6909722222</v>
@@ -977,35 +1091,38 @@
         <v>0.214</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43811.7916666667</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>43719.7256944444</v>
@@ -1026,35 +1143,38 @@
         <v>0.181</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43811.7916666667</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>43733.8020833333</v>
@@ -1075,35 +1195,38 @@
         <v>0.197</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43837.7916666667</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>43753.6861111111</v>
@@ -1124,35 +1247,38 @@
         <v>0.192</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>43837.7916666667</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>43768.7375</v>
@@ -1173,37 +1299,40 @@
         <v>0.153</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>43837.7916666667</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q12" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>43782.7916666667</v>
@@ -1224,35 +1353,38 @@
         <v>0.143</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>43837.7916666667</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>43794.7930555556</v>
@@ -1273,17 +1405,332 @@
         <v>0.103</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>43895.7916666667</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P14"/>
       <c r="Q14" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="R14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>43864.7534722222</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>43881.7916666667</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-16.881</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-141.808</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="M15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>44018.75</v>
+      </c>
+      <c r="O15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15"/>
+      <c r="Q15" t="s">
+        <v>88</v>
+      </c>
+      <c r="R15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>43990.6770833333</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>44019.6944444444</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-6.049</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-43.459</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="M16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>44095.75</v>
+      </c>
+      <c r="O16" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16"/>
+      <c r="Q16" t="s">
+        <v>93</v>
+      </c>
+      <c r="R16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>44019.70625</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>44034.69375</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-8.846</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-64.001</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>44095.75</v>
+      </c>
+      <c r="O17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17"/>
+      <c r="Q17" t="s">
+        <v>93</v>
+      </c>
+      <c r="R17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>44034.6972222222</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>44046.7819444444</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-6.288</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-49.094</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="M18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>44095.75</v>
+      </c>
+      <c r="O18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18"/>
+      <c r="Q18" t="s">
+        <v>102</v>
+      </c>
+      <c r="R18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>44046.7840277778</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>44060.7638888889</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-7.026</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-55.246</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="M19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>44169.7916666667</v>
+      </c>
+      <c r="O19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19"/>
+      <c r="Q19" t="s">
+        <v>102</v>
+      </c>
+      <c r="R19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>44060.7701388889</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>44117.7215277778</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-14.939</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-116.611</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="M20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>44169.7916666667</v>
+      </c>
+      <c r="O20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20"/>
+      <c r="Q20" t="s">
+        <v>111</v>
+      </c>
+      <c r="R20" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
